--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:33:34+00:00</t>
+    <t>2021-10-12T17:20:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vaccination-injection-site-swelling-size.xlsx
+++ b/ValueSet-vaccination-injection-site-swelling-size.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:09:33+00:00</t>
+    <t>2021-10-19T21:35:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
